--- a/biology/Botanique/Apocyn_chanvrin/Apocyn_chanvrin.xlsx
+++ b/biology/Botanique/Apocyn_chanvrin/Apocyn_chanvrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apocynum cannabinum
 L'Apocyn chanvrin (Apocynum cannabinum) est une espèce de plantes dicotylédones de la famille des Apocynaceae, de la sous-famille des Apocynoideae, originaire d'Amérique du Nord.
-C'est une plante herbacée, vivace, à port dressé, qui produit un latex laiteux. La plante contient divers composés chimiques, entre autres l'apocynine, l'apocynamarine, la cymarine et la rosine[2].
-L'espèce est une mauvaise herbe qui infeste les cultures, notamment le maïs (Zea mays), le soja (Glycine max), le blé (Triticum aestivum), le sorgho (Sorghum bicolor) et les plantes fourragères. La présence de glucosides cardiaques dans la sève est un risque d'intoxication pour le bétail[3].
-Le chanvre indien est récolté traditionnellement par les tribus amérindiennes pour ses fibres. Ses tiges fournissent des fibres libériennes (du liber), à la fois solides et soyeuses, qui sont transformées en ficelles, cordes, paniers, filets, vêtements, etc[2].
-La plante est toxique mais ses graines sont comestibles. Elle était utilisée par les Amérindiens en médecine traditionnelle pour soigner diverses affections[4].
+C'est une plante herbacée, vivace, à port dressé, qui produit un latex laiteux. La plante contient divers composés chimiques, entre autres l'apocynine, l'apocynamarine, la cymarine et la rosine.
+L'espèce est une mauvaise herbe qui infeste les cultures, notamment le maïs (Zea mays), le soja (Glycine max), le blé (Triticum aestivum), le sorgho (Sorghum bicolor) et les plantes fourragères. La présence de glucosides cardiaques dans la sève est un risque d'intoxication pour le bétail.
+Le chanvre indien est récolté traditionnellement par les tribus amérindiennes pour ses fibres. Ses tiges fournissent des fibres libériennes (du liber), à la fois solides et soyeuses, qui sont transformées en ficelles, cordes, paniers, filets, vêtements, etc.
+La plante est toxique mais ses graines sont comestibles. Elle était utilisée par les Amérindiens en médecine traditionnelle pour soigner diverses affections.
 </t>
         </is>
       </c>
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom spécifique
-Son nom spécifique crée un rapprochement avec le Chanvre cultivé (Cannabis sativa sous-espèce sativa), non pas pour des propriétés psychotropes qui sont celles du Chanvre indien (Cannabis sativa sous-espèce indica), mais pour l'usage fait de leurs écorces fibreuses (plus précisément des fibres de leur liber)[5].
+          <t>Nom spécifique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique crée un rapprochement avec le Chanvre cultivé (Cannabis sativa sous-espèce sativa), non pas pour des propriétés psychotropes qui sont celles du Chanvre indien (Cannabis sativa sous-espèce indica), mais pour l'usage fait de leurs écorces fibreuses (plus précisément des fibres de leur liber).
 </t>
         </is>
       </c>
@@ -548,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apocynum cannabinum est une plante herbacée vivace pouvant atteidre jusqu'à 2 m de haut. La tige est  souvent rougeâtre. Les feuilles sont opposées, simples, lancéolées. Les feuilles et les tiges exudent une sève laiteuse à la cassure. Les fleurs sont blanches avec une corolle tubulaire[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apocynum cannabinum est une plante herbacée vivace pouvant atteidre jusqu'à 2 m de haut. La tige est  souvent rougeâtre. Les feuilles sont opposées, simples, lancéolées. Les feuilles et les tiges exudent une sève laiteuse à la cassure. Les fleurs sont blanches avec une corolle tubulaire.
 </t>
         </is>
       </c>
@@ -581,21 +600,26 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (17 août 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (17 août 2019) :
 Apocynum album Greene
 Apocynum bebbianum Greene
 Apocynum canadense Shecut
-Apocynum cannabinum var. angustifolium (Woot.) N. Holmgren[7]
-Apocynum cannabinum var. glaberrimum A. DC.[7]
-Apocynum cannabinum var. greeneanum (Bég. &amp; Bel.) Woods.[7]
-Apocynum cannabinum var. hypericifolium Gray[7]
-Apocynum cannabinum var. nemorale (G.S. Mill.) Fern.[7]
+Apocynum cannabinum var. angustifolium (Woot.) N. Holmgren
+Apocynum cannabinum var. glaberrimum A. DC.
+Apocynum cannabinum var. greeneanum (Bég. &amp; Bel.) Woods.
+Apocynum cannabinum var. hypericifolium Gray
+Apocynum cannabinum var. nemorale (G.S. Mill.) Fern.
 Apocynum densiflorum Greene
 Apocynum estellinum Greene
 Apocynum farwellii Greene
 Apocynum greeneanum Bég. &amp; Beloserky
-Apocynum hypericifolium Ait.[7]
+Apocynum hypericifolium Ait.
 Apocynum hypericifolium Aiton
 Apocynum isophyllum Greene
 Apocynum laurinum Greene
@@ -603,18 +627,53 @@
 Apocynum nemorale G.S.Mill.
 Apocynum oblongum Greene
 Apocynum palustre Greene
-Apocynum pubescens Mitchell ex R. Br.[7]
+Apocynum pubescens Mitchell ex R. Br.
 Apocynum salignum Greene
-Apocynum sibiricum var. cordigerum (Greene) Fern.[7]
-Apocynum sibiricum var. farwellii (Greene) Fern.[7]
-Apocynum suksdorfii var. angustifolium (Woot.) Woods.[7]
+Apocynum sibiricum var. cordigerum (Greene) Fern.
+Apocynum sibiricum var. farwellii (Greene) Fern.
+Apocynum suksdorfii var. angustifolium (Woot.) Woods.
 Apocynum thermale Greene
 Apocynum venetum A.DC.
 Cynopaema cannabinum (L.) Lunell
 Cynopaema hypericifolium (Aiton) Lunell
 Forsteronia pavonii A.DC.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (17 août 2019)[8] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apocyn_chanvrin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apocyn_chanvrin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (17 août 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Apocynum cannabinum subsp. cannabinum
 Apocynum cannabinum subsp. cordigerum (Greene) Á. Löve &amp; D. Löve
@@ -642,37 +701,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Apocyn_chanvrin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Apocyn_chanvrin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Toxicité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les parties de la plante sont toxiques et peuvent provoquer un arrêt cardiaque en cas d’ingestion[9].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -694,13 +722,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicinal
-Apocynum est utilisé en phytothérapie pour traiter la syphilis, les rhumatismes, les vers intestinaux, la fièvre, l’asthme, et la dysenterie . Bien que les toxines de la plante peuvent causer des nausées, elle a également été utilisée pour ralentir le pouls[9].
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les parties de la plante sont toxiques et peuvent provoquer un arrêt cardiaque en cas d’ingestion.
 </t>
         </is>
       </c>
@@ -726,14 +755,53 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médicinal</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apocynum est utilisé en phytothérapie pour traiter la syphilis, les rhumatismes, les vers intestinaux, la fièvre, l’asthme, et la dysenterie . Bien que les toxines de la plante peuvent causer des nausées, elle a également été utilisée pour ralentir le pouls.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Apocyn_chanvrin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apocyn_chanvrin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle d'Apocynum cannabinum s'étend en Amérique du Nord sur la quasi-totalité du territoire des États-Unis (à l'exclusion notamment de l'Alaska) et du Canada (sauf Terre-Neuve-et-Labrador et Nunavut).
-L'espèce a été introduite dans certaines régions du monde, comme l'Ukraine et la Corée[10].
-Cette espèce pousse dans les zones boisées ouvertes, les fossés et à flanc de coteaux. Elle préfère les sols de gravier ou de sable, principalement près des ruisseaux dans des endroits ombragés ou humides[4].
+L'espèce a été introduite dans certaines régions du monde, comme l'Ukraine et la Corée.
+Cette espèce pousse dans les zones boisées ouvertes, les fossés et à flanc de coteaux. Elle préfère les sols de gravier ou de sable, principalement près des ruisseaux dans des endroits ombragés ou humides.
 </t>
         </is>
       </c>
